--- a/outputs/d__Bacteria_subset.xlsx
+++ b/outputs/d__Bacteria_subset.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="20" yWindow="460" windowWidth="28800" windowHeight="15880" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="15880" windowWidth="28800" xWindow="20" yWindow="460"/>
   </bookViews>
   <sheets>
     <sheet name="p__Actinobacteriota-t" sheetId="1" state="visible" r:id="rId1"/>
@@ -16,6 +16,7 @@
     <sheet name="p__Firmicutes_A-t-p" sheetId="8" state="visible" r:id="rId8"/>
     <sheet name="p__Firmicutes_C-t-p" sheetId="9" state="visible" r:id="rId9"/>
     <sheet name="p__Firmicutes-t-p" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="p__Actinobacteriota-t1" sheetId="11" state="visible" r:id="rId11"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -83,21 +84,21 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -2146,7 +2147,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -4342,7 +4343,922 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>p__Actinobacteriota</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>p__Firmicutes</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_C</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>prediction</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>RUG440</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.8390092880308319</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-0.06048235358435544</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-2.693240072913926</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-1.20238968789343</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-1.28579398643189</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>p__Actinobacteriota</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>hRUG890</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.4676334448038834</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-0.3639618749111521</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-2.307832168684072</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-1.549921717181982</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-1.530155428759165</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>p__Actinobacteriota</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>RUG039</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>-1.48296334841179</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-0.9770044332183854</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-1.916276857414702</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.4575395048296464</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-1.850920894825476</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>RUG836</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>2.234804927032838</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-3.196511028810357</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-2.499281689755956</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-1.15447113020739</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-1.730926125679597</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>p__Actinobacteriota</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>RUG025</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>2.049962563814632</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-0.4379137076310433</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-4.641136538086324</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-2.791270595834703</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-2.188443811612871</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>p__Actinobacteriota</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>RUG729</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1.896837088484602</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-3.774672038365423</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-2.296319926945134</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-0.93025034940545</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-2.454032705524716</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>p__Actinobacteriota</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>RUG768</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>3.266762158812373</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-4.307233661123219</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-4.393654495053272</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-2.453126452456668</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-2.740557950972937</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>p__Actinobacteriota</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>RUG013</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.5852311016817009</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-1.489522565630642</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-1.626175138109172</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-3.143310025848845</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-1.702510954481483</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>p__Actinobacteriota</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>RUG721</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3.14537825033252</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-3.058466579025065</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-4.041580715308626</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-1.993651639768127</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-1.447187203240146</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>p__Actinobacteriota</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>RUG040</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-1.156958606432583</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-1.284009973781217</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-2.192278045238693</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.8103668753607929</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-2.114089070657906</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>RUG844</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.9951360403085784</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-1.977301751819967</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-2.125982726862636</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-2.370679167170322</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-2.508073851461126</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>p__Actinobacteriota</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>RUG161</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.3139524721979345</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-0.6667223163915064</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-2.314169822091221</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-1.511075400662908</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-1.942812567304808</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>p__Actinobacteriota</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>RUG802</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>3.345744100691538</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-5.113894668084892</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-2.945273190547885</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-1.916217768367542</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-2.315962979560683</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>p__Actinobacteriota</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>RUG077</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>-0.7548051491336377</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-0.00895698237427911</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-1.778119982552906</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-0.6939194820196612</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-1.498158691624069</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>RUG725</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>2.009324595305798</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-1.772222478967537</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-2.396514397636327</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-1.690282829371536</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-2.861840097884992</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>p__Actinobacteriota</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="inlineStr">
+        <is>
+          <t>RUG133</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>1.291395674036304</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-2.736835803561857</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-1.426907054516265</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-1.328901986542981</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-2.406524274497627</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>p__Actinobacteriota</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>RUG162</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-0.4062174157521812</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-0.1844085343340159</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-2.07005298236849</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-1.375449804766233</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-2.286209039103102</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>RUG654</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1.261193056022335</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-2.381193306750091</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-2.757375366536563</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-0.8560250682943978</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-2.692650496739476</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>p__Actinobacteriota</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>RUG082</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>2.525767622408813</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-3.985039627401309</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-1.723362383912323</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-1.824190794889751</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-2.192788187669377</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>p__Actinobacteriota</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="inlineStr">
+        <is>
+          <t>RUG033</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1.377681938908963</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-2.063997514180057</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-2.74882647498684</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-1.080799828107533</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-2.528689843544726</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>p__Actinobacteriota</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t>RUG002</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.5702826254447592</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.3541135307946534</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-3.965304273803971</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-1.365973594065622</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-1.689325271623483</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>p__Actinobacteriota</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="inlineStr">
+        <is>
+          <t>RUG778</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>1.336533365971597</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-1.357162270996544</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-1.913180560629115</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-1.389055762134496</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-1.93740515337381</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>p__Actinobacteriota</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>RUG032</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>1.522948526590682</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-0.4971674851525586</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-3.328256414959311</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-2.888811833662988</v>
+      </c>
+      <c r="F24" t="n">
+        <v>-3.137724948382925</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>p__Actinobacteriota</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="inlineStr">
+        <is>
+          <t>RUG422</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>1.699733225740568</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-2.394026379106073</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-1.997626639663844</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-1.420266741874944</v>
+      </c>
+      <c r="F25" t="n">
+        <v>-4.789018432964493</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>p__Actinobacteriota</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="inlineStr">
+        <is>
+          <t>RUG001</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>2.866861277080733</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-3.981738596429233</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-3.768269698372884</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-1.862600489098068</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-3.645427729515514</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>p__Actinobacteriota</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="inlineStr">
+        <is>
+          <t>hRUG864</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>-0.2578825874520658</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.6470035799842084</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-1.987061966683925</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-1.381956761862054</v>
+      </c>
+      <c r="F27" t="n">
+        <v>-2.228522270036002</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="inlineStr">
+        <is>
+          <t>RUG078</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.911216670448619</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-1.535911286743425</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-2.48668838573448</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-1.525979819149777</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-1.144253570628891</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>p__Actinobacteriota</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="inlineStr">
+        <is>
+          <t>RUG188</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>1.098360183054228</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-2.112638640275744</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-1.888433972851346</v>
+      </c>
+      <c r="E29" t="n">
+        <v>-1.989667363437811</v>
+      </c>
+      <c r="F29" t="n">
+        <v>-2.295244446769355</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>p__Actinobacteriota</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="inlineStr">
+        <is>
+          <t>RUG004</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>1.709549411617842</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-0.6641826880433856</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-3.079302241120866</v>
+      </c>
+      <c r="E30" t="n">
+        <v>-2.136246342692848</v>
+      </c>
+      <c r="F30" t="n">
+        <v>-2.514678155935166</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>p__Actinobacteriota</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="inlineStr">
+        <is>
+          <t>RUG014</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.5412746158071878</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-0.2800702206848942</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-3.38337391647605</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-1.308814281913595</v>
+      </c>
+      <c r="F31" t="n">
+        <v>-1.507619852716588</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>p__Actinobacteriota</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="inlineStr">
+        <is>
+          <t>RUG804</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>1.252001826998116</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-2.000273396672119</v>
+      </c>
+      <c r="D32" t="n">
+        <v>-2.77752677805548</v>
+      </c>
+      <c r="E32" t="n">
+        <v>-1.604001309075203</v>
+      </c>
+      <c r="F32" t="n">
+        <v>-2.23126593159339</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>p__Actinobacteriota</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="inlineStr">
+        <is>
+          <t>hRUG891</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>1.291271607311637</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-0.8428015461206119</v>
+      </c>
+      <c r="D33" t="n">
+        <v>-2.859811304216319</v>
+      </c>
+      <c r="E33" t="n">
+        <v>-2.171118217791222</v>
+      </c>
+      <c r="F33" t="n">
+        <v>-2.557530463972689</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>p__Actinobacteriota</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -13249,7 +14165,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -23182,7 +24098,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -24043,7 +24959,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -25741,7 +26657,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -27937,7 +28853,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -39478,7 +40394,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -52349,7 +53265,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -53460,6 +54376,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>